--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_100.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_100.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kisshin\Desktop\Mestrado Ricardo\Thesis\Msc_thesis\Data\Modeling Stage\Feature Selection\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9172107F-6C72-4496-B1AE-524F60CFC546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2025" yWindow="0" windowWidth="26775" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exam_fail" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="exam_gifted" sheetId="3" r:id="rId3"/>
     <sheet name="final_gifted" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -154,8 +160,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,11 +224,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -264,7 +278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,9 +310,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,6 +362,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,14 +555,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -544,7 +600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -576,7 +632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -608,7 +664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -640,7 +696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -672,7 +728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -704,7 +760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -736,7 +792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -768,7 +824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -800,7 +856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -832,7 +888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -864,7 +920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -896,7 +952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -928,7 +984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -960,7 +1016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -992,7 +1048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1024,7 +1080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1056,7 +1112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1088,7 +1144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1120,7 +1176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1152,7 +1208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1184,7 +1240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1216,7 +1272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1248,7 +1304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1280,7 +1336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1312,7 +1368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1344,7 +1400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1376,7 +1432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -1408,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -1440,7 +1496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -1472,7 +1528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -1504,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -1536,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -1568,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -1600,7 +1656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -1638,14 +1694,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1677,7 +1737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1709,7 +1769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1741,7 +1801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1773,7 +1833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1805,7 +1865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1837,7 +1897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1869,7 +1929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1901,7 +1961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1933,7 +1993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1965,7 +2025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1997,7 +2057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -2029,7 +2089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -2061,7 +2121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -2093,7 +2153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -2125,7 +2185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -2157,7 +2217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -2189,7 +2249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -2221,7 +2281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -2253,7 +2313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2285,7 +2345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -2317,7 +2377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -2349,7 +2409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -2381,7 +2441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -2413,7 +2473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -2445,7 +2505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
@@ -2477,7 +2537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -2509,7 +2569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -2541,7 +2601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -2573,7 +2633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -2605,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,7 +2697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2669,7 +2729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
@@ -2701,7 +2761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -2733,7 +2793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -2771,14 +2831,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2810,7 +2876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2842,7 +2908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2874,7 +2940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2906,7 +2972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -2938,7 +3004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -2970,7 +3036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -3002,7 +3068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -3034,7 +3100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -3066,7 +3132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -3098,7 +3164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -3130,7 +3196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -3162,7 +3228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -3194,7 +3260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -3226,7 +3292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -3258,7 +3324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -3290,7 +3356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -3322,7 +3388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -3354,7 +3420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -3386,7 +3452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -3418,7 +3484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -3450,7 +3516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -3482,7 +3548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -3514,7 +3580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -3546,7 +3612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -3578,7 +3644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -3610,7 +3676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -3642,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -3674,7 +3740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -3706,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -3738,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -3770,7 +3836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -3802,7 +3868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -3834,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -3866,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -3904,14 +3970,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3943,7 +4013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -3975,7 +4045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4007,7 +4077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -4039,7 +4109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -4071,7 +4141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -4103,7 +4173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -4135,7 +4205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -4167,7 +4237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -4199,7 +4269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -4231,7 +4301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -4263,7 +4333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -4295,7 +4365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -4327,7 +4397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -4359,7 +4429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -4391,7 +4461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -4423,7 +4493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -4455,7 +4525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -4487,7 +4557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -4519,7 +4589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -4551,7 +4621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -4583,7 +4653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -4615,7 +4685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -4647,7 +4717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -4679,7 +4749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -4711,7 +4781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -4743,7 +4813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -4775,7 +4845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -4807,7 +4877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -4839,7 +4909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -4871,7 +4941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -4903,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -4935,7 +5005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -4967,7 +5037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -4999,7 +5069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>17</v>
       </c>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_100.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_100.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kisshin\Desktop\Mestrado Ricardo\Thesis\Msc_thesis\Data\Modeling Stage\Feature Selection\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9172107F-6C72-4496-B1AE-524F60CFC546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="0" windowWidth="26775" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="exam_fail" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="exam_gifted" sheetId="3" r:id="rId3"/>
     <sheet name="final_gifted" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -67,82 +61,82 @@
     <t>Resources viewed</t>
   </si>
   <si>
-    <t>Total time online (min)</t>
+    <t>Number of clicks</t>
+  </si>
+  <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
+    <t>Number of sessions</t>
   </si>
   <si>
     <t>Clicks (% of course total)</t>
   </si>
   <si>
-    <t>Start of Session 1 (%)</t>
+    <t>Total time online (min)</t>
   </si>
   <si>
     <t>Start of Session 3 (%)</t>
   </si>
   <si>
-    <t>Number of sessions</t>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
+    <t>Clicks per session</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Assignments submitted</t>
+  </si>
+  <si>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Clicks on course</t>
   </si>
   <si>
-    <t>Number of clicks</t>
-  </si>
-  <si>
     <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Assignments submitted</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
   </si>
   <si>
     <t>Average session duration (min)</t>
   </si>
   <si>
-    <t>Clicks per session</t>
+    <t>Start of Session 9 (%)</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
+    <t>Start of Session 6 (%)</t>
   </si>
   <si>
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Forum posts</t>
   </si>
   <si>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
     <t>Quizzes started</t>
   </si>
   <si>
-    <t>Clicks on forum</t>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Files downloaded</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
+    <t>Number of days</t>
   </si>
   <si>
     <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Number of days</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Start of Session 5 (%)</t>
@@ -151,7 +145,7 @@
     <t>Submissions (% of course total)</t>
   </si>
   <si>
-    <t>Start of Session 9 (%)</t>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Start of Session 7 (%)</t>
@@ -160,8 +154,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,19 +218,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -278,7 +264,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,27 +296,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,24 +330,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -555,20 +505,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -600,7 +544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -632,7 +576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -664,7 +608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -696,7 +640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -728,7 +672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -739,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -757,10 +701,10 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -774,25 +718,25 @@
         <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -803,13 +747,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -824,7 +768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -835,28 +779,28 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -888,18 +832,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -908,19 +852,19 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -928,31 +872,31 @@
         <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -984,15 +928,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1004,36 +948,36 @@
         <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1048,15 +992,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1068,19 +1012,19 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1112,7 +1056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1120,10 +1064,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1144,12 +1088,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -1158,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -1176,15 +1120,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1196,30 +1140,30 @@
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1228,19 +1172,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1272,12 +1216,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -1289,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1304,7 +1248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1312,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1336,7 +1280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1368,7 +1312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1400,7 +1344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1411,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1429,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -1464,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -1496,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -1528,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -1560,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -1592,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -1624,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -1656,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -1694,18 +1638,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1737,7 +1677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1769,7 +1709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1801,7 +1741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1833,7 +1773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1865,15 +1805,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1897,9 +1837,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1929,9 +1869,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1961,24 +1901,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -1993,9 +1933,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2007,27 +1947,27 @@
         <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -2057,9 +1997,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2089,24 +2029,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -2121,79 +2061,79 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -2214,12 +2154,12 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -2249,9 +2189,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2281,9 +2221,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -2313,15 +2253,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -2345,50 +2285,50 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="b">
-        <v>1</v>
-      </c>
-      <c r="C21" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -2409,7 +2349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -2441,18 +2381,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2473,18 +2413,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -2505,18 +2445,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -2537,9 +2477,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2569,9 +2509,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2580,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -2601,9 +2541,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2612,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -2630,12 +2570,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2665,9 +2605,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2697,9 +2637,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2729,9 +2669,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2761,9 +2701,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2793,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -2831,20 +2771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2876,9 +2810,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2908,7 +2842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2940,7 +2874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2972,7 +2906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -3004,9 +2938,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -3036,9 +2970,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3068,15 +3002,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -3097,12 +3031,12 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3132,15 +3066,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -3149,24 +3083,24 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3196,9 +3130,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3228,9 +3162,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3260,9 +3194,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -3292,15 +3226,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -3321,12 +3255,12 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -3335,10 +3269,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -3356,9 +3290,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -3388,9 +3322,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -3420,44 +3354,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -3469,33 +3403,33 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -3504,36 +3438,36 @@
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -3545,21 +3479,21 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -3580,9 +3514,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3591,13 +3525,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -3612,12 +3546,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -3629,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -3644,15 +3578,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -3661,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -3676,9 +3610,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3693,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -3705,12 +3639,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3740,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -3772,9 +3706,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3804,9 +3738,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3836,9 +3770,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3868,9 +3802,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3900,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -3932,9 +3866,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -3970,18 +3904,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4013,9 +3943,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -4045,7 +3975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4077,7 +4007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -4109,12 +4039,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -4123,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -4141,9 +4071,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4173,9 +4103,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4184,10 +4114,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -4205,9 +4135,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4237,9 +4167,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4248,13 +4178,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -4266,12 +4196,12 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4280,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4289,21 +4219,21 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4315,42 +4245,42 @@
         <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -4365,9 +4295,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -4376,62 +4306,62 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4461,9 +4391,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4493,15 +4423,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -4513,27 +4443,27 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -4557,9 +4487,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -4571,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -4586,18 +4516,18 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -4606,33 +4536,33 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -4653,15 +4583,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4670,30 +4600,30 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -4714,12 +4644,12 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4728,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -4737,53 +4667,53 @@
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B25" t="b">
-        <v>1</v>
-      </c>
-      <c r="C25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4813,18 +4743,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -4845,18 +4775,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -4877,9 +4807,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4888,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -4906,172 +4836,172 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C30" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" t="b">
-        <v>0</v>
-      </c>
-      <c r="C31" t="b">
-        <v>0</v>
-      </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" t="b">
-        <v>0</v>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="b">
-        <v>0</v>
-      </c>
-      <c r="C33" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34" t="b">
-        <v>0</v>
-      </c>
-      <c r="D34" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_100.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_100.xlsx
@@ -52,13 +52,22 @@
     <t>Average grade of assignments</t>
   </si>
   <si>
-    <t>Days with no interaction</t>
-  </si>
-  <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
     <t>Resources viewed</t>
+  </si>
+  <si>
+    <t>Days with no interaction</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Clicks (% of course total)</t>
+  </si>
+  <si>
+    <t>Number of sessions</t>
   </si>
   <si>
     <t>Number of clicks</t>
@@ -67,22 +76,13 @@
     <t>Start of Session 1 (%)</t>
   </si>
   <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
-    <t>Clicks (% of course total)</t>
-  </si>
-  <si>
     <t>Total time online (min)</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
+    <t>Clicks per day</t>
   </si>
   <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
-    <t>Clicks per session</t>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Assignments viewed</t>
@@ -91,10 +91,10 @@
     <t>Assignments submitted</t>
   </si>
   <si>
-    <t>Start of Session 2 (%)</t>
+    <t>Clicks per session</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
+    <t>Average session duration (min)</t>
   </si>
   <si>
     <t>Clicks on course</t>
@@ -103,52 +103,52 @@
     <t>Links viewed</t>
   </si>
   <si>
-    <t>Average session duration (min)</t>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
   </si>
   <si>
+    <t>Quizzes started</t>
+  </si>
+  <si>
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Clicks per day</t>
+    <t>Forum posts</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Submissions (% of course total)</t>
   </si>
   <si>
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
-    <t>Forum posts</t>
+    <t>Files downloaded</t>
   </si>
   <si>
-    <t>Clicks on forum</t>
+    <t>Start of Session 5 (%)</t>
   </si>
   <si>
-    <t>Quizzes started</t>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Start of Session 8 (%)</t>
   </si>
   <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Number of days</t>
+    <t>Start of Session 7 (%)</t>
   </si>
   <si>
     <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
   </si>
 </sst>
 </file>
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -718,19 +718,19 @@
         <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -773,10 +773,10 @@
         <v>17</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -788,13 +788,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -811,13 +811,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -837,7 +837,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -869,13 +869,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -997,10 +997,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>4</v>
@@ -1061,10 +1061,10 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -1125,10 +1125,10 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1140,13 +1140,13 @@
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -1157,19 +1157,19 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1221,7 +1221,7 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1807,13 +1807,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1825,21 +1825,21 @@
         <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1874,10 +1874,10 @@
         <v>17</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -1889,13 +1889,13 @@
         <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>6</v>
@@ -1903,22 +1903,22 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1947,51 +1947,51 @@
         <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2031,31 +2031,31 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2063,19 +2063,19 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2107,22 +2107,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2133,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -2154,12 +2154,12 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -2191,22 +2191,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -2223,22 +2223,22 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -2258,10 +2258,10 @@
         <v>26</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -2287,22 +2287,22 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -2314,12 +2314,12 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2351,16 +2351,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2415,16 +2415,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2479,10 +2479,10 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -2570,12 +2570,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2917,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2935,21 +2935,21 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -2999,12 +2999,12 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -3022,27 +3022,27 @@
         <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -3054,13 +3054,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -3068,13 +3068,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -3083,16 +3083,16 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3196,31 +3196,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -3228,16 +3228,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -3260,13 +3260,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -3275,24 +3275,24 @@
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -3324,31 +3324,31 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -3356,16 +3356,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -3403,16 +3403,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>3</v>
@@ -3420,10 +3420,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>3</v>
@@ -3452,22 +3452,22 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -3479,21 +3479,21 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -3516,16 +3516,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3580,16 +3580,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -3639,12 +3639,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4021,7 +4021,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -4036,12 +4036,12 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4050,10 +4050,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4146,13 +4146,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -4164,12 +4164,12 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4178,10 +4178,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -4201,31 +4201,31 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -4233,22 +4233,22 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -4265,16 +4265,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4393,31 +4393,31 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4425,16 +4425,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -4443,13 +4443,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4457,19 +4457,19 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -4484,24 +4484,24 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -4580,18 +4580,18 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4600,16 +4600,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4690,13 +4690,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -4713,13 +4713,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4754,13 +4754,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -4777,13 +4777,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -4804,12 +4804,12 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_100.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_100.xlsx
@@ -52,16 +52,13 @@
     <t>Average grade of assignments</t>
   </si>
   <si>
+    <t>Days with no interaction</t>
+  </si>
+  <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
     <t>Resources viewed</t>
-  </si>
-  <si>
-    <t>Days with no interaction</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
   </si>
   <si>
     <t>Clicks (% of course total)</t>
@@ -73,16 +70,31 @@
     <t>Number of clicks</t>
   </si>
   <si>
+    <t>Total time online (min)</t>
+  </si>
+  <si>
     <t>Start of Session 1 (%)</t>
   </si>
   <si>
-    <t>Total time online (min)</t>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Clicks on course</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
+    <t>Clicks per session</t>
   </si>
   <si>
     <t>Clicks per day</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Assignments viewed</t>
@@ -91,25 +103,10 @@
     <t>Assignments submitted</t>
   </si>
   <si>
-    <t>Clicks per session</t>
-  </si>
-  <si>
     <t>Average session duration (min)</t>
   </si>
   <si>
-    <t>Clicks on course</t>
-  </si>
-  <si>
     <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
@@ -118,28 +115,28 @@
     <t>Quizzes started</t>
   </si>
   <si>
+    <t>Forum posts</t>
+  </si>
+  <si>
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Number of days</t>
-  </si>
-  <si>
-    <t>Submissions (% of course total)</t>
+    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
+    <t>Discussions viewed</t>
+  </si>
+  <si>
     <t>Files downloaded</t>
   </si>
   <si>
-    <t>Start of Session 5 (%)</t>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Number of days</t>
   </si>
   <si>
     <t>Start of Session 8 (%)</t>
@@ -148,7 +145,10 @@
     <t>Start of Session 7 (%)</t>
   </si>
   <si>
-    <t>Discussions viewed</t>
+    <t>Submissions (% of course total)</t>
+  </si>
+  <si>
+    <t>Start of Session 5 (%)</t>
   </si>
 </sst>
 </file>
@@ -683,22 +683,22 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>6</v>
@@ -715,22 +715,22 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -744,10 +744,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -773,16 +773,16 @@
         <v>17</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -840,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -875,10 +875,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -901,10 +901,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -916,13 +916,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>4</v>
@@ -933,28 +933,28 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>4</v>
@@ -965,19 +965,19 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -1073,16 +1073,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -1099,13 +1099,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1140,13 +1140,13 @@
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -1157,16 +1157,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -1221,13 +1221,13 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1967,31 +1967,31 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -2095,10 +2095,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -2107,19 +2107,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>4</v>
@@ -2127,16 +2127,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -2145,13 +2145,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>4</v>
@@ -2159,16 +2159,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -2177,13 +2177,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -2191,22 +2191,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -2255,22 +2255,22 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -2287,16 +2287,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -2319,16 +2319,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -2351,13 +2351,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2424,13 +2424,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2456,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>37</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -2543,10 +2543,10 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2908,16 +2908,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2940,16 +2940,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -2999,21 +2999,21 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -3022,13 +3022,13 @@
         <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>6</v>
@@ -3036,13 +3036,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -3054,13 +3054,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3196,31 +3196,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -3228,10 +3228,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -3255,39 +3255,39 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3295,13 +3295,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -3356,16 +3356,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -3403,16 +3403,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>3</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -3467,24 +3467,24 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -3493,13 +3493,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -3516,10 +3516,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -3531,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -3548,10 +3548,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4018,10 +4018,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -4041,16 +4041,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4114,10 +4114,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -4164,12 +4164,12 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4184,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -4196,24 +4196,24 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -4228,27 +4228,27 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -4265,16 +4265,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -4283,13 +4283,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -4306,30 +4306,30 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -4393,31 +4393,31 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4425,31 +4425,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4457,19 +4457,19 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -4484,18 +4484,18 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -4516,18 +4516,18 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -4548,18 +4548,18 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -4568,24 +4568,24 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -4594,13 +4594,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -4635,27 +4635,27 @@
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -4676,12 +4676,12 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4713,13 +4713,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -4745,13 +4745,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -4777,13 +4777,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -4804,18 +4804,18 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -4836,18 +4836,18 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -4868,18 +4868,18 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -4932,18 +4932,18 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -4964,18 +4964,18 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -4996,12 +4996,12 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_100.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_100.xlsx
@@ -64,6 +64,18 @@
     <t>Clicks (% of course total)</t>
   </si>
   <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Clicks per session</t>
+  </si>
+  <si>
+    <t>Clicks on course</t>
+  </si>
+  <si>
     <t>Number of sessions</t>
   </si>
   <si>
@@ -73,82 +85,70 @@
     <t>Total time online (min)</t>
   </si>
   <si>
-    <t>Start of Session 1 (%)</t>
+    <t>Links viewed</t>
+  </si>
+  <si>
+    <t>Assignments submitted</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
+    <t>Average session duration (min)</t>
+  </si>
+  <si>
+    <t>Clicks per day</t>
   </si>
   <si>
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
-    <t>Clicks on course</t>
+    <t>Assignments viewed</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Clicks on folder</t>
   </si>
   <si>
-    <t>Days with no interaction (%)</t>
+    <t>Forum posts</t>
   </si>
   <si>
-    <t>Clicks per session</t>
+    <t>Quizzes started</t>
   </si>
   <si>
-    <t>Clicks per day</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
-    <t>Assignments submitted</t>
-  </si>
-  <si>
-    <t>Average session duration (min)</t>
-  </si>
-  <si>
-    <t>Links viewed</t>
+    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
   </si>
   <si>
-    <t>Quizzes started</t>
+    <t>Files downloaded</t>
   </si>
   <si>
-    <t>Forum posts</t>
+    <t>Start of Session 8 (%)</t>
+  </si>
+  <si>
+    <t>Discussions viewed</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Start of Session 5 (%)</t>
   </si>
   <si>
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
-  </si>
-  <si>
-    <t>Number of days</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
+    <t>Submissions (% of course total)</t>
   </si>
   <si>
     <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
-    <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
   </si>
 </sst>
 </file>
@@ -715,13 +715,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -782,22 +782,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -869,10 +869,10 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -884,13 +884,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -965,19 +965,19 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -997,16 +997,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -1029,7 +1029,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -1061,28 +1061,28 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -1093,28 +1093,28 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -1125,28 +1125,28 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1189,7 +1189,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>34</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1839,13 +1839,13 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1871,19 +1871,19 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1947,27 +1947,27 @@
         <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1999,31 +1999,31 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -2031,39 +2031,39 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2075,22 +2075,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2127,7 +2127,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2191,22 +2191,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2264,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -2319,16 +2319,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -2351,13 +2351,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2456,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2639,7 +2639,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2908,13 +2908,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -2935,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2972,7 +2972,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3004,16 +3004,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -3022,13 +3022,13 @@
         <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>6</v>
@@ -3036,16 +3036,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3054,13 +3054,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -3068,13 +3068,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -3083,16 +3083,16 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -3228,16 +3228,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -3255,18 +3255,18 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -3287,15 +3287,15 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -3324,31 +3324,31 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -3420,16 +3420,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>3</v>
@@ -3452,16 +3452,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -3470,13 +3470,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -3493,13 +3493,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
@@ -3580,16 +3580,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -3639,12 +3639,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4018,10 +4018,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -4041,10 +4041,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -4053,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4114,10 +4114,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -4137,19 +4137,19 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -4164,21 +4164,21 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -4196,12 +4196,12 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4210,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4219,21 +4219,21 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4265,16 +4265,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -4283,13 +4283,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -4297,19 +4297,19 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -4324,36 +4324,36 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4425,31 +4425,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4457,10 +4457,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -4469,30 +4469,30 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -4516,21 +4516,21 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -4548,18 +4548,18 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -4568,33 +4568,33 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -4603,13 +4603,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -4617,13 +4617,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -4635,13 +4635,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -4649,22 +4649,22 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -4676,12 +4676,12 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4713,16 +4713,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -4745,16 +4745,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -4777,13 +4777,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -4804,18 +4804,18 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -4836,18 +4836,18 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -4868,18 +4868,18 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -4900,12 +4900,12 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -4932,18 +4932,18 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -4964,18 +4964,18 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -4996,12 +4996,12 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_100.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_100.xlsx
@@ -61,6 +61,9 @@
     <t>Resources viewed</t>
   </si>
   <si>
+    <t>Total time online (min)</t>
+  </si>
+  <si>
     <t>Clicks (% of course total)</t>
   </si>
   <si>
@@ -82,13 +85,7 @@
     <t>Number of clicks</t>
   </si>
   <si>
-    <t>Total time online (min)</t>
-  </si>
-  <si>
     <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Assignments submitted</t>
   </si>
   <si>
     <t>Days with no interaction (%)</t>
@@ -97,34 +94,37 @@
     <t>Average session duration (min)</t>
   </si>
   <si>
-    <t>Clicks per day</t>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
+    <t>Clicks per day</t>
+  </si>
+  <si>
+    <t>Assignments submitted</t>
+  </si>
+  <si>
     <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
   </si>
   <si>
     <t>Start of Session 10 (%)</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
     <t>Quizzes started</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
   </si>
   <si>
-    <t>Files downloaded</t>
+    <t>Submissions (% of course total)</t>
+  </si>
+  <si>
+    <t>Number of days</t>
   </si>
   <si>
     <t>Start of Session 8 (%)</t>
@@ -136,19 +136,19 @@
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
-    <t>Number of days</t>
-  </si>
-  <si>
     <t>Start of Session 5 (%)</t>
   </si>
   <si>
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Submissions (% of course total)</t>
+    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Files downloaded</t>
   </si>
 </sst>
 </file>
@@ -683,22 +683,22 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>6</v>
@@ -718,19 +718,19 @@
         <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -747,13 +747,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -782,22 +782,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -811,10 +811,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -840,10 +840,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -852,13 +852,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -869,13 +869,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -997,16 +997,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -1061,10 +1061,10 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1076,13 +1076,13 @@
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -1093,10 +1093,10 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -1125,10 +1125,10 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -1140,13 +1140,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -1157,13 +1157,13 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1224,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>34</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1679,7 +1679,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1825,30 +1825,30 @@
         <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1880,22 +1880,22 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>6</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1944,30 +1944,30 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1999,31 +1999,31 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -2058,24 +2058,24 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -2090,15 +2090,15 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -2122,12 +2122,12 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2168,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -2282,15 +2282,15 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -2319,16 +2319,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -2351,16 +2351,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2424,13 +2424,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -2447,16 +2447,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -2479,16 +2479,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -2543,10 +2543,10 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2602,12 +2602,12 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2978,10 +2978,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -3004,13 +3004,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -3022,13 +3022,13 @@
         <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>6</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3051,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -3063,12 +3063,12 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3132,16 +3132,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3196,31 +3196,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -3260,13 +3260,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -3383,12 +3383,12 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -3438,36 +3438,36 @@
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -3479,12 +3479,12 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -3516,10 +3516,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -3531,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -3548,10 +3548,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -3580,13 +3580,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3621,13 +3621,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4018,10 +4018,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -4041,10 +4041,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -4053,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4114,10 +4114,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -4137,19 +4137,19 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -4164,21 +4164,21 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -4196,12 +4196,12 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4210,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4219,21 +4219,21 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4265,16 +4265,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -4283,13 +4283,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -4297,19 +4297,19 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -4324,24 +4324,24 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -4356,12 +4356,12 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4460,39 +4460,39 @@
         <v>29</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -4501,51 +4501,51 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -4553,45 +4553,45 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4600,16 +4600,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -4617,16 +4617,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4664,30 +4664,30 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -4708,12 +4708,12 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4745,16 +4745,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -4777,13 +4777,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -4804,18 +4804,18 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -4836,18 +4836,18 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -4868,18 +4868,18 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -4932,18 +4932,18 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -4964,18 +4964,18 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -4996,12 +4996,12 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_100.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_100.xlsx
@@ -61,22 +61,16 @@
     <t>Resources viewed</t>
   </si>
   <si>
-    <t>Total time online (min)</t>
-  </si>
-  <si>
     <t>Clicks (% of course total)</t>
   </si>
   <si>
     <t>Start of Session 1 (%)</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
     <t>Clicks per session</t>
   </si>
   <si>
-    <t>Clicks on course</t>
+    <t>Clicks per day</t>
   </si>
   <si>
     <t>Number of sessions</t>
@@ -85,7 +79,10 @@
     <t>Number of clicks</t>
   </si>
   <si>
-    <t>Links viewed</t>
+    <t>Total time online (min)</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
     <t>Days with no interaction (%)</t>
@@ -94,40 +91,37 @@
     <t>Average session duration (min)</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
-    <t>Clicks per day</t>
+    <t>Clicks on course</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Links viewed</t>
   </si>
   <si>
     <t>Assignments submitted</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
+    <t>Start of Session 9 (%)</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Forum posts</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
-  </si>
-  <si>
     <t>Quizzes started</t>
   </si>
   <si>
-    <t>Start of Session 9 (%)</t>
+    <t>Files downloaded</t>
   </si>
   <si>
-    <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Number of days</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
+    <t>Start of Session 7 (%)</t>
   </si>
   <si>
     <t>Discussions viewed</t>
@@ -136,19 +130,25 @@
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
+    <t>Number of days</t>
   </si>
   <si>
     <t>Clicks on forum</t>
   </si>
   <si>
-    <t>Start of Session 7 (%)</t>
+    <t>Start of Session 5 (%)</t>
   </si>
   <si>
-    <t>Files downloaded</t>
+    <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
+    <t>Submissions (% of course total)</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 6 (%)</t>
   </si>
 </sst>
 </file>
@@ -683,22 +683,22 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>6</v>
@@ -718,19 +718,19 @@
         <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -747,25 +747,25 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -782,22 +782,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -808,25 +808,25 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -837,10 +837,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -852,13 +852,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -901,13 +901,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -933,16 +933,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -965,16 +965,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -997,10 +997,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>4</v>
@@ -1032,10 +1032,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -1096,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1157,13 +1157,13 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1189,19 +1189,19 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1224,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1285,7 +1285,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1679,7 +1679,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1807,10 +1807,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1834,12 +1834,12 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -1866,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1883,19 +1883,19 @@
         <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>6</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1915,19 +1915,19 @@
         <v>1</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1944,30 +1944,30 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1999,31 +1999,31 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -2063,16 +2063,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -2081,13 +2081,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2107,27 +2107,27 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -2168,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -2191,22 +2191,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2264,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -2282,12 +2282,12 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2328,13 +2328,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -2351,16 +2351,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2424,13 +2424,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2479,16 +2479,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -2511,16 +2511,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -2543,10 +2543,10 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3004,10 +3004,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -3031,12 +3031,12 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3045,10 +3045,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3196,31 +3196,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -3228,31 +3228,31 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -3287,18 +3287,18 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -3307,16 +3307,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -3333,10 +3333,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -3383,15 +3383,15 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -3420,13 +3420,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -3438,21 +3438,21 @@
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -3461,13 +3461,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -3516,10 +3516,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -3531,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -3548,10 +3548,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -3639,12 +3639,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -4036,21 +4036,21 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4274,22 +4274,22 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -4329,19 +4329,19 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -4356,21 +4356,21 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4457,31 +4457,31 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -4501,30 +4501,30 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -4536,16 +4536,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -4580,12 +4580,12 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -4617,16 +4617,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4681,16 +4681,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4809,16 +4809,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4905,16 +4905,16 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4969,13 +4969,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -4996,12 +4996,12 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_100.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_100.xlsx
@@ -73,6 +73,9 @@
     <t>Clicks per day</t>
   </si>
   <si>
+    <t>Clicks on course</t>
+  </si>
+  <si>
     <t>Number of sessions</t>
   </si>
   <si>
@@ -94,9 +97,6 @@
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
-    <t>Clicks on course</t>
-  </si>
-  <si>
     <t>Assignments viewed</t>
   </si>
   <si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>Assignments submitted</t>
-  </si>
-  <si>
-    <t>Start of Session 9 (%)</t>
   </si>
   <si>
     <t>Clicks on folder</t>
@@ -118,10 +115,13 @@
     <t>Quizzes started</t>
   </si>
   <si>
-    <t>Files downloaded</t>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
-    <t>Start of Session 7 (%)</t>
+    <t>Start of Session 8 (%)</t>
+  </si>
+  <si>
+    <t>Files downloaded</t>
   </si>
   <si>
     <t>Discussions viewed</t>
@@ -130,25 +130,25 @@
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
     <t>Number of days</t>
   </si>
   <si>
     <t>Clicks on forum</t>
   </si>
   <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Start of Session 6 (%)</t>
   </si>
   <si>
     <t>Submissions (% of course total)</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
+    <t>Start of Session 9 (%)</t>
   </si>
   <si>
-    <t>Start of Session 6 (%)</t>
+    <t>Start of Session 7 (%)</t>
   </si>
 </sst>
 </file>
@@ -808,10 +808,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -837,13 +837,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -869,13 +869,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -933,31 +933,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -965,16 +965,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -997,10 +997,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>4</v>
@@ -1029,13 +1029,13 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -1160,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1253,13 +1253,13 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1866,12 +1866,12 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1883,19 +1883,19 @@
         <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>6</v>
@@ -1903,16 +1903,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1921,13 +1921,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2031,10 +2031,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -2095,19 +2095,19 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -2122,12 +2122,12 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2168,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -2191,22 +2191,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -2255,19 +2255,19 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2424,13 +2424,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -2447,16 +2447,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2511,16 +2511,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -2543,10 +2543,10 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3004,13 +3004,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -3036,13 +3036,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -3063,12 +3063,12 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3077,30 +3077,30 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -3127,21 +3127,21 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3196,31 +3196,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -3228,31 +3228,31 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -3260,39 +3260,39 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -3307,48 +3307,48 @@
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -3356,31 +3356,31 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -3403,24 +3403,24 @@
         <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -3461,13 +3461,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -3484,16 +3484,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3525,13 +3525,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -3548,13 +3548,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -3639,12 +3639,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4021,7 +4021,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -4036,12 +4036,12 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4050,10 +4050,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4114,10 +4114,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -4164,21 +4164,21 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -4196,12 +4196,12 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4210,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4219,36 +4219,36 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -4265,13 +4265,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -4280,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -4306,54 +4306,54 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -4361,31 +4361,31 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4457,42 +4457,42 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -4521,19 +4521,19 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -4568,30 +4568,30 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4600,16 +4600,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4658,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -4667,30 +4667,30 @@
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -4708,12 +4708,12 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4722,13 +4722,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -4745,16 +4745,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -4777,13 +4777,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -4804,12 +4804,12 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -4836,18 +4836,18 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -4868,18 +4868,18 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -4900,12 +4900,12 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -4932,18 +4932,18 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -5001,7 +5001,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_100.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_100.xlsx
@@ -52,28 +52,19 @@
     <t>Average grade of assignments</t>
   </si>
   <si>
-    <t>Days with no interaction</t>
-  </si>
-  <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
     <t>Resources viewed</t>
   </si>
   <si>
-    <t>Clicks (% of course total)</t>
+    <t>Days with no interaction</t>
   </si>
   <si>
-    <t>Start of Session 1 (%)</t>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
-    <t>Clicks per session</t>
-  </si>
-  <si>
-    <t>Clicks per day</t>
-  </si>
-  <si>
-    <t>Clicks on course</t>
+    <t>Clicks (% of course total)</t>
   </si>
   <si>
     <t>Number of sessions</t>
@@ -82,73 +73,82 @@
     <t>Number of clicks</t>
   </si>
   <si>
-    <t>Total time online (min)</t>
+    <t>Start of Session 1 (%)</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
+    <t>Total time online (min)</t>
   </si>
   <si>
     <t>Days with no interaction (%)</t>
   </si>
   <si>
+    <t>Clicks per session</t>
+  </si>
+  <si>
+    <t>Clicks on course</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Assignments submitted</t>
+  </si>
+  <si>
     <t>Average session duration (min)</t>
+  </si>
+  <si>
+    <t>Links viewed</t>
   </si>
   <si>
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
+    <t>Clicks per day</t>
   </si>
   <si>
-    <t>Links viewed</t>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
-    <t>Assignments submitted</t>
+    <t>Quizzes started</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 6 (%)</t>
   </si>
   <si>
     <t>Forum posts</t>
   </si>
   <si>
-    <t>Quizzes started</t>
+    <t>Number of days</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Submissions (% of course total)</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
+    <t>Files downloaded</t>
+  </si>
+  <si>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Start of Session 9 (%)</t>
   </si>
   <si>
     <t>Start of Session 8 (%)</t>
   </si>
   <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
     <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Number of days</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
-    <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Start of Session 9 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
   </si>
 </sst>
 </file>
@@ -683,22 +683,22 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>6</v>
@@ -718,19 +718,19 @@
         <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -750,22 +750,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -773,31 +773,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -840,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -872,25 +872,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -904,25 +904,25 @@
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -936,10 +936,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -948,13 +948,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -965,16 +965,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -997,28 +997,28 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>4</v>
@@ -1029,28 +1029,28 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -1061,28 +1061,28 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -1096,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1125,31 +1125,31 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1285,7 +1285,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1807,16 +1807,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1851,19 +1851,19 @@
         <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1883,19 +1883,19 @@
         <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>6</v>
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1921,21 +1921,21 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1967,31 +1967,31 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -2031,16 +2031,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2063,13 +2063,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2081,13 +2081,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2095,16 +2095,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -2113,13 +2113,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -2159,10 +2159,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -2171,19 +2171,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -2255,13 +2255,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2351,16 +2351,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2415,16 +2415,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -2447,16 +2447,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -2479,16 +2479,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3004,10 +3004,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -3016,10 +3016,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -3031,12 +3031,12 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3048,19 +3048,19 @@
         <v>1</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -3068,22 +3068,22 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -3127,12 +3127,12 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3202,25 +3202,25 @@
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -3272,19 +3272,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -3292,16 +3292,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -3324,31 +3324,31 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -3356,31 +3356,31 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -3388,31 +3388,31 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -3452,10 +3452,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -3484,13 +3484,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3525,13 +3525,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -3548,16 +3548,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4018,10 +4018,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4050,10 +4050,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -4073,16 +4073,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -4100,24 +4100,24 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -4132,27 +4132,27 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -4169,10 +4169,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -4181,7 +4181,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -4201,45 +4201,45 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -4251,27 +4251,27 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -4283,21 +4283,21 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -4329,16 +4329,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4425,31 +4425,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -4466,13 +4466,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -4484,7 +4484,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4495,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -4504,16 +4504,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -4568,24 +4568,24 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -4617,13 +4617,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -4632,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -4644,12 +4644,12 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4681,16 +4681,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4722,13 +4722,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4777,10 +4777,10 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -4804,12 +4804,12 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
